--- a/Data/arquivo.xlsx
+++ b/Data/arquivo.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\source\repos\FabricioEx\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE68D10-F2F1-4E58-9741-CCDDA9761662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{EA4EBF22-DF71-4ABA-945C-A217732AA231}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>fabricio</t>
   </si>
@@ -41,13 +35,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -75,7 +76,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -133,7 +134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -185,7 +186,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -379,26 +380,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439C5243-2F62-42B9-B5E7-3C588AA9C91F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/arquivo.xlsx
+++ b/Data/arquivo.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,9 +27,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>fabricio</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -391,19 +395,22 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/arquivo.xlsx
+++ b/Data/arquivo.xlsx
@@ -27,12 +27,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>fabricio</t>
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feafewaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feafe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afeafe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,25 +444,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>123</v>
+      </c>
+      <c r="J2">
+        <v>32</v>
+      </c>
+      <c r="K2">
+        <v>21</v>
+      </c>
+      <c r="L2">
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/Data/arquivo.xlsx
+++ b/Data/arquivo.xlsx
@@ -27,13 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>fabricio</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Test</t>
@@ -436,7 +432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -447,47 +443,44 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -507,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2">
         <v>123</v>

--- a/Data/arquivo.xlsx
+++ b/Data/arquivo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>fabricio</t>
   </si>
@@ -81,6 +81,10 @@
   </si>
   <si>
     <t>afeafe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -443,12 +447,15 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
